--- a/Issue.xlsx
+++ b/Issue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="165" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="USA_Device_ID" sheetId="2" r:id="rId2"/>
     <sheet name="INDIA_Devie_ID" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -114,9 +114,6 @@
     <t>PUB and SUB topic will use the store name: sub_AB_USA_DEMO pub_AB_USA_DEMO = USA_DEMO store name,  akshay have to change the condition which depends on "sub_AB_" characters .</t>
   </si>
   <si>
-    <t>When it is in Device configuration screen it black after some and come back the same scree on the display</t>
-  </si>
-  <si>
     <t>Energy Monitoring Web site</t>
   </si>
   <si>
@@ -142,13 +139,16 @@
   </si>
   <si>
     <t>payment history showing wrong date and wrong information.</t>
+  </si>
+  <si>
+    <t>dvdvsvs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,7 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,10 +442,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,15 +651,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -673,20 +671,20 @@
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -713,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -734,7 +732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -755,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -776,7 +774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -796,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -816,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8">
         <v>6</v>
       </c>
@@ -836,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9">
         <v>7</v>
       </c>
@@ -844,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
@@ -856,7 +854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10">
         <v>8</v>
       </c>
@@ -864,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
@@ -876,35 +874,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>8</v>
@@ -916,35 +914,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>43304</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -957,19 +955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -977,7 +975,7 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -986,31 +984,31 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1021,7 +1019,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1040,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
